--- a/datafiles-2017/xlsfiles/crime2012to2016_spa.xlsx
+++ b/datafiles-2017/xlsfiles/crime2012to2016_spa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Crimes" sheetId="1" r:id="rId1"/>
@@ -752,10 +752,10 @@
     <t>West Boulevard</t>
   </si>
   <si>
-    <t>_Unknown neighborhood</t>
-  </si>
-  <si>
     <t>Cleveland City</t>
+  </si>
+  <si>
+    <t>Unknown neighborhood</t>
   </si>
 </sst>
 </file>
@@ -23175,7 +23175,7 @@
     </row>
     <row r="36" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36">
         <v>157</v>
@@ -23465,7 +23465,7 @@
     </row>
     <row r="37" spans="1:210" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B37">
         <v>6119</v>
